--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1063.063998975763</v>
+        <v>462.9010767742673</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007000207901000977</v>
+        <v>0.001000165939331055</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.99399897576404</v>
+        <v>42.9010767742673</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.90513640446556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.90513640446556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>587.819999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>433.2500000000001</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.20851569551316</v>
+        <v>20.63858450874014</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553446</v>
+        <v>19.09486359553444</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.427798817200209</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>15.91036991521413</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.75248347305559</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,76 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>148.2050000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>145.8200000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1050000000006</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>152.8100000000007</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.2100000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>254.4650000000002</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>255.6850000000009</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>256.8300000000008</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>264.7700000000001</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>262.1600000000001</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.02999999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77499999999934</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.16999999999935</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.73999999999934</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.25999999999999</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>170.25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>175.1199999999992</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>188.65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>177.8549999999991</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>188.1549999999991</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>254.4649999999996</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>255.6850000000006</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>256.8300000000005</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>264.7699999999994</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>262.1599999999994</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>170.25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>175.1199999999992</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>188.65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>177.8549999999991</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>188.1549999999991</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>54.46499999999958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>55.68500000000063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>56.8300000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>64.76999999999941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>62.1599999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1735,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1922,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1944,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,61 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
